--- a/js/Noviembre.xlsx
+++ b/js/Noviembre.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="18-11-2019" sheetId="1" r:id="rId1"/>
+    <sheet name="27-11-2019" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
